--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,25 +424,30 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>类别</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>姓名</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>电话</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>电子邮件</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>额外信息</t>
         </is>
@@ -451,54 +456,1600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>杨</t>
+          <t>同事</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>沈帅</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1960-12-28</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15576521460</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>学院: 1, 职称: 1, 研究方向: 1</t>
+          <t>vtian@example.org</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>数字100信息有限公司</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>同事</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>葛林</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1997-12-16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13965410436</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>如何认识: 1</t>
+          <t>fangjin@example.org</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>惠派国际公司科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>钟琳</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1984-05-05</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13142815250</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>guiying44@example.net</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>最后大学; 基本学</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>宋雪梅</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1961-06-23</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13947493932</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>qianxiuying@example.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>维旺明网络有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>黄淑珍</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1977-09-04</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15086502569</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>jieyi@example.net</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>是否技术投资图片然后文件能够.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>李淑华</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1977-05-09</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15275792965</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fang21@example.org</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>其中点击只要商品.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>陈雪梅</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1958-05-13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13087634834</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>longjun@example.net</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>可能活动之后图片.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>李丽娟</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1960-10-29</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15626704510</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>hcheng@example.org</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>自己大学; 助教; 次数深圳包括相关男人觉得音乐.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>徐秀荣</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1993-06-27</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13877134267</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>hanlei@example.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>系列大学; 分析学</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>傅龙</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2000-11-11</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15238218840</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>uwen@example.net</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>如何大学; 教授; 更新只有文件有限能力.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>丁小红</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1991-08-16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15526373856</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>dsu@example.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>诺依曼软件传媒有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>罗桂珍</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1968-10-10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18521071863</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>xialiu@example.org</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>完全过程一定应该.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>戴伟</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1980-08-18</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15345161517</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>gang29@example.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>泰麒麟网络有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>崔岩</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1980-09-10</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14577014666</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>gang34@example.net</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>堂兄</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>廖飞</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1984-09-11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15922423049</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>sfeng@example.net</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>以上最新只是以及原因.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>王明</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2000-01-28</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13821189646</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>htao@example.net</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>历史大学; 到了学</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>韦芳</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2004-12-30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13548985228</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>jing25@example.net</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>简介大学; 助教; 美国一直人员发展浏览.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>刘淑兰</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1975-09-08</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13244896438</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ganghao@example.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>各种大学; 讲师; 国际增加价格什么.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>蒋凤兰</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1958-07-05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13775616457</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>zhangna@example.net</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>大学已经系列这是设备所有可以.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>傅文</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1988-10-26</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13947151292</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>vkang@example.net</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>艾提科信信息有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>陈雷</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1997-04-23</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15691416465</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>fwan@example.net</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>生活大学; 助教; 人民用户部门都是记者下载.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>何秀珍</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1975-10-21</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15279848245</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cgao@example.net</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>已经大学; 教授; 计划直接科技参加的人不断.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>贾彬</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1980-05-04</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15907927591</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>nafan@example.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>结果大学; 讲师; 设计公司说明评论可是作为.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>朱建军</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1965-07-14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15914734539</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>xiuyingzhou@example.net</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大家本站相关本站名称.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>皮超</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1996-11-14</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15913998066</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>lxiang@example.org</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>表姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>彭桂兰</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1985-11-02</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15839939889</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>gang14@example.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>正在大学; 开发学</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>李文</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1960-03-18</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18841794257</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>zdu@example.net</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>富罳信息有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>龙东</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1969-09-15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13938830928</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yongdu@example.net</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>经济大学; 你的学</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>王娟</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1974-09-13</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13991738504</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>yangsun@example.net</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>质量大学; 资料学</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>张林</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1968-02-22</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14506600729</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>chengyan@example.net</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>看到大学; 副教授; 还有单位参加控制最后.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>蔺秀荣</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2002-10-15</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15852147300</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>minpan@example.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>现在大学; 讲师; 这个可能到了业务历史其中.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>王秀梅</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1964-07-08</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15125494097</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>gwan@example.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>一次网站必须东西由于.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>陈婷</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2000-06-06</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15525485156</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>tianming@example.org</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>表弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>华瑜</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1959-10-15</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13190771493</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>wangjing@example.net</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>支持大学; 讲师; 报告控制加入会员重要东西支持.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>钟岩</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1987-05-11</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15674722770</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>weiyan@example.net</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>介绍大学; 到了学</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>王丽娟</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1982-11-08</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18255323191</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>liaojuan@example.org</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>所有电脑类别就是这是.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>李建国</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1969-11-27</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15823802484</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>wanguiying@example.net</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>这个大学; 教授; 有关工具主要文件.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>杜坤</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1975-11-09</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13054245130</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>yanding@example.com</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>超艺传媒有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>邹瑞</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1976-06-17</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15533907510</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>juan73@example.net</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>研究大学; 助教; 怎么北京开始用户.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>张军</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1996-06-05</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18923378168</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>emo@example.net</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>表姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>向春梅</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2003-01-08</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15769864256</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>gangsong@example.org</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>北京大学; 两个学</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>杨慧</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1975-03-24</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15541424390</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>jtan@example.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>开发区世创科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>吕桂珍</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1975-12-14</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15960276802</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>pmao@example.com</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>表姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>黄婷</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1962-03-28</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13089165201</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>min77@example.org</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>支持点击因为.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>杨博</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1986-09-25</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15620726703</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>fanglai@example.net</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>表弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>陈丽</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1993-03-18</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15819137765</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>lyuan@example.net</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>表弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>胡桂荣</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1998-01-16</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15336121763</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>qianghou@example.com</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>艾提科信信息有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>李建国</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1981-03-01</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18056906167</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>yan77@example.org</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>堂兄</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>刘雪</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1965-09-17</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13931643635</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>xiulan40@example.net</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>设计大学; 教授; 就是发展网上活动.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>刘雪</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1989-01-27</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14790176682</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>longping@example.net</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>天开传媒有限公司</t>
         </is>
       </c>
     </row>
